--- a/RxJava.xlsx
+++ b/RxJava.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DDC286-DF8A-4D74-A4A0-A0E4D95C92E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2700871B-0FB6-4D9D-A3B8-E4433230A5D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="2610" windowWidth="27975" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1692" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="版本" sheetId="2" r:id="rId1"/>
+    <sheet name="类数量 1.x前" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -452,30 +453,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:S16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EE979E-F93D-4C9A-BA35-A74863F579D6}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C5:S15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="10" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="13" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="10" max="11" width="11.77734375" customWidth="1"/>
+    <col min="12" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="Q5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="3:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -528,7 +545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -549,12 +566,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D15" si="0">SUM(E8:Q8)</f>
+        <f t="shared" ref="D8:D13" si="0">SUM(E8:Q8)</f>
         <v>54</v>
       </c>
       <c r="E8">
@@ -573,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -603,7 +620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -636,7 +653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -669,7 +686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -702,7 +719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -741,7 +758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -795,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -847,11 +864,6 @@
       </c>
       <c r="S15">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="F16">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
